--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3A2B8D4-1B23-0A42-BC91-D3DF2658876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB88C59-E743-264A-A3DF-A51BD584AA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="980" windowWidth="27900" windowHeight="16440" xr2:uid="{6313F5A4-DB70-3148-BF70-10A8C73ED2B1}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="27900" windowHeight="16440" xr2:uid="{6313F5A4-DB70-3148-BF70-10A8C73ED2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB88C59-E743-264A-A3DF-A51BD584AA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53137AD4-FE84-8E4E-9504-0028A2DA5DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="27900" windowHeight="16440" xr2:uid="{6313F5A4-DB70-3148-BF70-10A8C73ED2B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AllergyRolerance" sheetId="1" r:id="rId1"/>
+    <sheet name="Observation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AllergyRolerance!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="267">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -57,14 +58,6 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヨウソ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FHIR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JP_Core</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2053,6 +2046,101 @@
   </si>
   <si>
     <t>"患者の母親"</t>
+  </si>
+  <si>
+    <t>"Observation"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Observation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースであることを示す</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specimen要素から参照される場合には、そのJP_Specimenリソースの実体。JP_Specimenリソースの必須要素だけが含まれればよい。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ジッタイ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ウメコマ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>レル シ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resource(JP_Specimen| JP_Specimen_eCS_Contained)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resource(JP_ServiceRequest | JP_ServiceRequest_eCS_Contained )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>recorder要素から参照される場合には、そのJP_ServiceRequestリソースの実体。JP_ServiceRequestリソースの必須要素だけが含まれればよい。</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ジッタイ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>_x0000__x0008__x0002__x0004_</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>_x000C__x0002_
+_x0011_</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resource(JP_Organization | JP_Organization_eCS_Contained )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resource(JP_Organization_eCS_department | JP_Organization_eCS_department_Contained )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resource(JP_Observation_LabResult | JP_Observation_LabResult_eCS_Contained )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2106,7 +2194,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2137,8 +2225,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2281,13 +2375,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2362,6 +2478,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2680,24 +2805,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:L103"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,28 +2839,22 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2746,23 +2863,21 @@
         <f>A2&amp;(IF(NOT(ISBLANK(B2)),"."&amp;B2,""))&amp;(IF(NOT(ISBLANK(C2)),"."&amp;C2,""))&amp;(IF(NOT(ISBLANK(D2)),"."&amp;D2,""))</f>
         <v>resourceType</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2771,28 +2886,22 @@
         <f t="shared" ref="E3:E34" si="0">A3&amp;(IF(NOT(ISBLANK(B3)),"."&amp;B3,""))&amp;(IF(NOT(ISBLANK(C3)),"."&amp;C3,""))&amp;(IF(NOT(ISBLANK(D3)),"."&amp;D3,""))</f>
         <v>meta</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2800,32 +2909,26 @@
         <f t="shared" si="0"/>
         <v>meta.lastUpdated</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="60">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2833,32 +2936,26 @@
         <f t="shared" si="0"/>
         <v>meta.profile[+}</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2866,165 +2963,135 @@
         <f t="shared" si="0"/>
         <v>meta.tag[*]</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="45">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>meta.tag[+].system</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>meta.tag[=].code</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60">
+    </row>
+    <row r="9" spans="1:10" ht="60">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>meta.tag[+].system</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>meta.tag[=].code</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="120">
+      <c r="A11" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="120">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3033,30 +3100,24 @@
         <f t="shared" si="0"/>
         <v>text</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3064,32 +3125,26 @@
         <f t="shared" si="0"/>
         <v>text.status</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3097,29 +3152,23 @@
         <f t="shared" si="0"/>
         <v>text.div</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3129,22 +3178,16 @@
         <v>contained[*]</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="60">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3153,27 +3196,21 @@
         <f t="shared" si="0"/>
         <v>contained[+]</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60">
+    </row>
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3182,27 +3219,21 @@
         <f t="shared" si="0"/>
         <v>contained[+]</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="75">
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3211,27 +3242,21 @@
         <f t="shared" si="0"/>
         <v>contained[+]</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75">
+      <c r="A18" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="75">
-      <c r="A18" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3240,30 +3265,24 @@
         <f t="shared" si="0"/>
         <v>identifier[*]</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="45">
+      <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45">
-      <c r="A19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3271,28 +3290,24 @@
         <f t="shared" si="0"/>
         <v>identifier[+].system</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="30">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3300,27 +3315,23 @@
         <f t="shared" si="0"/>
         <v>identifier[+].value</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="6" t="s">
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3329,30 +3340,24 @@
         <f t="shared" si="0"/>
         <v>clinicalStatus</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="F21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3360,135 +3365,111 @@
         <f t="shared" si="0"/>
         <v>clinicalStatus.coding[*]</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="F22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>clinicalStatus.coding[+].system</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="60">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60">
-      <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>clinicalStatus.coding[=].code</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>clinicalStatus.coding[=].dispkay</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3496,27 +3477,21 @@
         <f t="shared" si="0"/>
         <v>clinicalStatus.text</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+      <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3525,30 +3500,24 @@
         <f t="shared" si="0"/>
         <v>verificationStatus</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="F27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3556,135 +3525,111 @@
         <f t="shared" si="0"/>
         <v>verificationStatus.coding[*]</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="F28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="45">
-      <c r="A29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>verificationStatus.coding[+].system</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="60">
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60">
       <c r="A30" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>verificationStatus.coding[=].code</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
+        <v>94</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>verificationStatus.coding[=].dispkay</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30">
+        <v>96</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3693,26 +3638,20 @@
         <v>verificationStatus.text</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="90">
+        <v>15</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="90">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3722,28 +3661,22 @@
         <v>type</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="165">
+      <c r="A34" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="165">
-      <c r="A34" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3752,86 +3685,68 @@
         <f t="shared" si="0"/>
         <v>category</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="F34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="13"/>
       <c r="I34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="90">
+      <c r="A35" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="90">
-      <c r="A35" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="13"/>
       <c r="I35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30">
+        <v>107</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="60">
-      <c r="A37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3839,135 +3754,111 @@
         <f t="shared" ref="E37:E100" si="1">A37&amp;(IF(NOT(ISBLANK(B37)),"."&amp;B37,""))&amp;(IF(NOT(ISBLANK(C37)),"."&amp;C37,""))&amp;(IF(NOT(ISBLANK(D37)),"."&amp;D37,""))</f>
         <v>code.coding[*]</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="F37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="120">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="120">
-      <c r="A38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>code.coding[+].system</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="13"/>
       <c r="I38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>111</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>code.coding[=].code</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>113</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>code.coding[=].dispkay</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30">
+        <v>115</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3975,29 +3866,23 @@
         <f t="shared" si="1"/>
         <v>code.text</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="15"/>
       <c r="I41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90">
+      <c r="A42" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="90">
-      <c r="A42" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4006,27 +3891,21 @@
         <f t="shared" si="1"/>
         <v>patient</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="15"/>
       <c r="I42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="75">
+    </row>
+    <row r="43" spans="1:10" ht="75">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -4036,18 +3915,16 @@
         <v/>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="165">
+      <c r="G43" s="6"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="165">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4057,20 +3934,18 @@
         <v/>
       </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15" t="s">
+      <c r="G44" s="6"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="75">
+      <c r="A45" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="75">
-      <c r="A45" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -4080,26 +3955,20 @@
         <v>encounter</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="135">
+    </row>
+    <row r="46" spans="1:10" ht="135">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4109,46 +3978,38 @@
         <v/>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="150">
+      <c r="A47" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="150">
-      <c r="A47" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="60">
+      <c r="A48" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="60">
-      <c r="A48" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4158,28 +4019,22 @@
         <v>onsetDateTime</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:10" ht="30">
+      <c r="A49" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30">
-      <c r="A49" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4189,31 +4044,25 @@
         <v>onsetAge</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4222,31 +4071,25 @@
         <v>onsetAge.value</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:10" ht="75">
+      <c r="A51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="75">
-      <c r="A51" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4255,31 +4098,25 @@
         <v>onsetAge.comparator</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="6"/>
       <c r="I51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4288,31 +4125,25 @@
         <v>onsetAge.unit</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="6"/>
       <c r="I52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4321,31 +4152,25 @@
         <v>onsetAge.system</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30">
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4354,28 +4179,22 @@
         <v>onsetAge.code</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="6"/>
       <c r="I54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -4385,29 +4204,23 @@
         <v>onsetPeriod</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4416,29 +4229,23 @@
         <v>onsetPeriod.start</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4447,26 +4254,20 @@
         <v>onsetPeriod.end</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -4476,29 +4277,23 @@
         <v>onsetRange</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -4507,32 +4302,26 @@
         <v>onsetRange.low</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="str">
@@ -4540,34 +4329,28 @@
         <v>onsetRange.low.value</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>145</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="str">
@@ -4575,34 +4358,28 @@
         <v>onsetRange.low.unit</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="str">
@@ -4610,34 +4387,28 @@
         <v>onsetRange.low.system</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="str">
@@ -4645,31 +4416,25 @@
         <v>onsetRange.low.code</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>157</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -4678,30 +4443,24 @@
         <v>onsetRange.high</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="str">
@@ -4709,34 +4468,28 @@
         <v>onsetRange.high.value</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>176</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="str">
@@ -4744,34 +4497,28 @@
         <v>onsetRange.high.unit</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="str">
@@ -4779,34 +4526,28 @@
         <v>onsetRange.high.system</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="str">
@@ -4814,28 +4555,22 @@
         <v>onsetRange.high.code</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>157</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4845,28 +4580,22 @@
         <v>onsetString</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -4875,27 +4604,21 @@
         <f t="shared" si="1"/>
         <v>recordedDate</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="75">
+      <c r="F70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="75">
       <c r="A71" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -4904,29 +4627,23 @@
         <f t="shared" si="1"/>
         <v>recorder</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="F71" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J71" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6" t="s">
+    </row>
+    <row r="72" spans="1:10" ht="165">
+      <c r="A72" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="165">
-      <c r="A72" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -4935,29 +4652,23 @@
         <f t="shared" si="1"/>
         <v>asserter</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="F72" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J72" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -4967,26 +4678,20 @@
         <v>lastOccurrence</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4996,29 +4701,23 @@
         <v>note[*]</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="10" t="s">
+      <c r="B75" s="6" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -5027,31 +4726,25 @@
         <v>note[+].authorString</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="6"/>
       <c r="I75" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="B76" s="6" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -5060,29 +4753,23 @@
         <v>note[=].time</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -5091,26 +4778,20 @@
         <v>note[=].text</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30">
+      <c r="A78" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -5120,29 +4801,23 @@
         <v>reaction[*]</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="180">
+      <c r="A79" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="10" t="s">
+      <c r="B79" s="6" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="180">
-      <c r="A79" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -5151,32 +4826,26 @@
         <v>reaction[+].substance</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="str">
@@ -5184,143 +4853,119 @@
         <v>reaction[=].substance.coding[*]</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="135">
+      <c r="A81" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="135">
-      <c r="A81" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].substance.coding[+].system</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30">
       <c r="A82" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].substance.coding[=].code</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30">
       <c r="A83" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].substance.coding[=].display</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="str">
@@ -5328,31 +4973,25 @@
         <v>reaction[=].substance.text</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J84" s="15"/>
-      <c r="K84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30">
+      <c r="A85" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="L84" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="30">
-      <c r="A85" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -5361,32 +5000,26 @@
         <v xml:space="preserve">reaction[=].manifestation[*] </v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30">
+      <c r="A86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="30">
-      <c r="A86" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="str">
@@ -5394,141 +5027,117 @@
         <v>reaction[=].manifestation[+].coding[*]</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="45">
+        <v>24</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45">
       <c r="A87" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].manifestation .coding[+].system</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30">
+      <c r="A88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="L87" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="30">
-      <c r="A88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].manifestation [=].coding[=].code</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30">
+      <c r="A89" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L88" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="30">
-      <c r="A89" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].manifestation[=].coding[=].display</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="L89" s="20"/>
-    </row>
-    <row r="90" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:10" ht="30">
       <c r="A90" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="str">
@@ -5536,63 +5145,51 @@
         <v>reaction[=].manifestation[=].text</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30">
+      <c r="A91" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="L90" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="30">
-      <c r="A91" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" s="6"/>
       <c r="I91" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -5601,31 +5198,25 @@
         <v>reaction[=].onset</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" s="6"/>
       <c r="I92" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="60">
+      <c r="A93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="60">
-      <c r="A93" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -5634,31 +5225,25 @@
         <v>reaction[=].severity</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" s="6"/>
       <c r="I93" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="30">
+      <c r="A94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -5667,32 +5252,26 @@
         <v>reaction[=].exposureRoute</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I94" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30">
+      <c r="A95" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="30">
-      <c r="A95" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="str">
@@ -5700,143 +5279,119 @@
         <v>reaction[=].exposureRoute.coding[*]</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="30">
+        <v>24</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].exposureRoute.coding[+].system</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I96" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="L96" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="30">
       <c r="A97" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].exposureRoute.coding[=].code</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I97" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L97" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="30">
+        <v>100</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J97" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30">
       <c r="A98" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>reaction[=].exposureRoute.coding[=].display</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L98" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J98" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="str">
@@ -5844,31 +5399,25 @@
         <v>reaction[=].exposureRoute.text</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I99" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="L99" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J99" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -5877,32 +5426,26 @@
         <v>reaction[=].note[*]</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6" t="str">
@@ -5910,34 +5453,28 @@
         <v>reaction[=].note[+].authorString</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H101" s="6"/>
       <c r="I101" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L101" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6" t="str">
@@ -5945,32 +5482,26 @@
         <v>reaction[=].note[=].time</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="31" thickBot="1">
+        <v>100</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="31" thickBot="1">
       <c r="A103" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="str">
@@ -5978,21 +5509,15 @@
         <v>reaction[=].note[=].text</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="24" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6000,4 +5525,613 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="34" fitToHeight="6" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACEF6E-319E-A144-A904-E832C274463C}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="str">
+        <f>A2&amp;(IF(NOT(ISBLANK(B2)),"."&amp;B2,""))&amp;(IF(NOT(ISBLANK(C2)),"."&amp;C2,""))&amp;(IF(NOT(ISBLANK(D2)),"."&amp;D2,""))</f>
+        <v>resourceType</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E24" si="0">A3&amp;(IF(NOT(ISBLANK(B3)),"."&amp;B3,""))&amp;(IF(NOT(ISBLANK(C3)),"."&amp;C3,""))&amp;(IF(NOT(ISBLANK(D3)),"."&amp;D3,""))</f>
+        <v>meta</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.lastUpdated</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.profile[+}</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.tag[*]</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.tag[+].system</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.tag[=].code</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.tag[+].system</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>meta.tag[=].code</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="120">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>text</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>text.status</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>text.div</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[*]</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[+]</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[+]</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[+]</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[+]</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>contained[+]</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="str">
+        <f t="shared" ref="E20" si="1">A20&amp;(IF(NOT(ISBLANK(B20)),"."&amp;B20,""))&amp;(IF(NOT(ISBLANK(C20)),"."&amp;C20,""))&amp;(IF(NOT(ISBLANK(D20)),"."&amp;D20,""))</f>
+        <v>contained[+]</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>identifier[*]</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>identifier[+].system</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>identifier[+].value</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>status</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59976E62-E0B5-9D4B-9866-038222E8712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5E98B15C-B095-9148-9E7D-2D98A83E5177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="28300" windowHeight="16940"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="28300" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="1" r:id="rId1"/>
@@ -3579,8 +3579,8 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3EF276-C171-534C-8BF3-63A20B6D87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E11335-162D-D745-988A-9F9314391918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1000" windowWidth="27900" windowHeight="16440"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="240">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -57,7 +57,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t xml:space="preserve">固定値 または例示 </t>
+    <t>固定値 または例示</t>
     <rPh sb="0" eb="3">
       <t>コテイチ</t>
     </rPh>
@@ -205,114 +205,6 @@
   </si>
   <si>
     <t>"UNINFORMED"</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Narrative</t>
-  </si>
-  <si>
-    <t>本 リソースの概要を記述した、人間が読み取り可能なテキスト記述。叙述(Narative)はすべての構造化されたデータをエンコードする必要はないが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要がある。アレルギーにおいては、code.text要素 、note.test要素 の値 があれば必 ずそれらをテキスト表現 に含 めること。
-本 リソースが他 のリソース内にContainedリソースとして記述 される場合には本 要素 は記述 しない（多重度 0..0）。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨミトリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>カナラズ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>フクメル</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="196" eb="197">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>🈚️</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="244" eb="247">
-      <t>タジュウド</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>テキスト内容の全てがリソースのコンテンツから生成されたことを示す。</t>
-  </si>
-  <si>
-    <t>"generated"</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>xhtml</t>
-  </si>
-  <si>
-    <t>テキスト表現 をXTHML形式 で記述 したデータ</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;xxx&lt;/div&gt;</t>
   </si>
   <si>
     <t>contained[*]</t>
@@ -495,7 +387,7 @@
     <t>identifier[+]</t>
   </si>
   <si>
-    <t>"http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier "</t>
+    <t>identifier[=]</t>
   </si>
   <si>
     <t>value</t>
@@ -602,6 +494,9 @@
   </si>
   <si>
     <t>”Active"</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
   <si>
     <t>コードだけでは記述 できない情報 がある場合 にコードと併用 してもよい。値 が使用 されない可能性 はある。</t>
@@ -2292,7 +2187,7 @@
     <t>"患者の母親"</t>
   </si>
   <si>
-    <t>identifier[=]</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2300,7 +2195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2461,6 +2356,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2922,7 +2826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3049,70 +2953,76 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3140,6 +3050,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -3466,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3726,155 +3637,153 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="120">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="60">
       <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45">
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="60">
+    <row r="15" spans="1:9" ht="75">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="75">
+    <row r="16" spans="1:9" ht="42">
       <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="10" t="s">
-        <v>53</v>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="75">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="10" t="s">
-        <v>53</v>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="75">
+    </row>
+    <row r="18" spans="1:9" ht="45">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -3886,37 +3795,37 @@
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="32" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="5" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
@@ -3928,577 +3837,569 @@
         <v>68</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="80" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="32" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="80" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="45">
+        <v>81</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
       <c r="A27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
+      <c r="E29" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60">
+        <v>87</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="90">
       <c r="A30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
-        <v>10</v>
+      <c r="E30" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="165">
       <c r="A31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
+      <c r="E31" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="12" t="s">
-        <v>71</v>
+      <c r="E32" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" ht="90">
+    </row>
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="12" t="s">
-        <v>71</v>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="60">
+      <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="165">
-      <c r="A34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="10" t="s">
-        <v>71</v>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="120">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="90">
-      <c r="A35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="12" t="s">
-        <v>71</v>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="60">
+        <v>101</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="120">
+        <v>103</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90">
       <c r="A39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="195">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75">
+      <c r="A42" s="5" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="90">
-      <c r="A42" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
-        <v>10</v>
+      <c r="E42" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="135">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="165">
+      <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="180">
-      <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="G44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="75">
+      <c r="H44" s="6"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="60">
       <c r="A45" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="10" t="s">
-        <v>71</v>
+      <c r="E45" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>125</v>
@@ -4513,77 +4414,93 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="135">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G46" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="165">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="12" t="s">
-        <v>71</v>
+      <c r="E47" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="60">
+        <v>133</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75">
       <c r="A48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="12" t="s">
-        <v>71</v>
+      <c r="E48" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="12" t="s">
-        <v>71</v>
+      <c r="E49" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>139</v>
@@ -4597,542 +4514,530 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="12" t="s">
-        <v>10</v>
+      <c r="E50" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="75">
+    </row>
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="12" t="s">
-        <v>71</v>
+      <c r="E51" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="12" t="s">
-        <v>10</v>
+      <c r="E52" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="12" t="s">
-        <v>71</v>
+      <c r="E53" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="G53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="12" t="s">
-        <v>71</v>
+      <c r="E54" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>153</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="12" t="s">
-        <v>71</v>
+      <c r="E55" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="12" t="s">
-        <v>71</v>
+      <c r="E56" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="12" t="s">
-        <v>71</v>
+      <c r="E57" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="12" t="s">
-        <v>71</v>
+      <c r="E58" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="12" t="s">
-        <v>71</v>
+      <c r="E59" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="12" t="s">
-        <v>71</v>
+      <c r="E60" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="12" t="s">
-        <v>71</v>
+      <c r="E61" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>149</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="12" t="s">
-        <v>71</v>
+      <c r="E62" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="30">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="12" t="s">
-        <v>71</v>
+      <c r="E63" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="12" t="s">
-        <v>71</v>
+      <c r="E64" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="12" t="s">
-        <v>71</v>
+      <c r="E65" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>147</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="12" t="s">
-        <v>71</v>
+      <c r="E66" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="75">
+      <c r="A68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="165">
       <c r="A69" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="12" t="s">
-        <v>71</v>
+      <c r="E69" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="10" t="s">
-        <v>71</v>
+      <c r="E70" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" ht="75">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="10" t="s">
-        <v>71</v>
+      <c r="E71" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="165">
+      <c r="H71" s="6"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="10" t="s">
-        <v>71</v>
+      <c r="E72" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>183</v>
@@ -5148,30 +5053,34 @@
       <c r="A73" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="12" t="s">
-        <v>71</v>
+      <c r="E73" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="12" t="s">
-        <v>22</v>
+      <c r="E74" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>188</v>
@@ -5182,397 +5091,405 @@
       <c r="H74" s="6"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="12" t="s">
-        <v>71</v>
+      <c r="E75" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="9" t="s">
+      <c r="H75" s="6"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="180">
+      <c r="A76" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="12" t="s">
-        <v>71</v>
+      <c r="E76" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="12" t="s">
-        <v>10</v>
+      <c r="E77" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="135">
       <c r="A78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" ht="180">
-      <c r="A79" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="12" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="135">
+        <v>103</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>71</v>
+      <c r="D81" s="6"/>
+      <c r="E81" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>71</v>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="45">
       <c r="A84" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>211</v>
+      <c r="G84" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" ht="45">
+    </row>
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>71</v>
+      <c r="D87" s="6"/>
+      <c r="E87" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="30">
       <c r="A88" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>71</v>
+        <v>217</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>220</v>
+        <v>57</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="30">
-      <c r="A89" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G89" s="15"/>
       <c r="H89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="60">
+      <c r="A90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="30">
-      <c r="A90" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="12" t="s">
-        <v>71</v>
+      <c r="E90" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G90" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>224</v>
       </c>
       <c r="H90" s="6" t="s">
@@ -5584,333 +5501,261 @@
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>226</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="12" t="s">
-        <v>71</v>
+      <c r="E91" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="60">
-      <c r="A93" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="12" t="s">
-        <v>71</v>
+        <v>226</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="12" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" ht="30">
+        <v>57</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>71</v>
+      <c r="D96" s="6"/>
+      <c r="E96" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>238</v>
+        <v>57</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>71</v>
+        <v>178</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>71</v>
+        <v>182</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>242</v>
+        <v>57</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="12" t="s">
-        <v>71</v>
+      <c r="E99" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="H99" s="6"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" ht="31" thickBot="1">
+      <c r="A100" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="1:9" ht="31" thickBot="1">
-      <c r="A103" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H103" s="17"/>
-      <c r="I103" s="19"/>
+      <c r="G100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" s="17"/>
+      <c r="I100" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
 </worksheet>
 </file>
--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E11335-162D-D745-988A-9F9314391918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A29496-8CE8-0247-9875-BA9347AE2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940"/>
+    <workbookView xWindow="3640" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="241">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2190,11 +2190,15 @@
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="12"/>
@@ -2394,7 +2398,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2595,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2957,7 +2967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3020,6 +3030,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3376,18 +3389,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3925,8 +3938,8 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
+      <c r="E24" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>62</v>
@@ -3946,7 +3959,7 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -3969,7 +3982,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -3996,7 +4009,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -4023,7 +4036,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -4315,7 +4328,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="180">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5754,7 +5767,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
 </worksheet>

--- a/reference/AllergyIntoleranceTable.xlsx
+++ b/reference/AllergyIntoleranceTable.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A29496-8CE8-0247-9875-BA9347AE2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F2E27B99-EA8B-814E-B2DE-362E64EE1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="1" r:id="rId1"/>
+    <sheet name="AllergyIntoleranceTable (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="AllergyIntoleranceTable (3)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="300">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2194,12 +2210,255 @@
     <t>0..1</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>AllergyIntoleranceリソースであることを示す</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>本リソースのメタデータ</t>
+  </si>
+  <si>
+    <t>電子カルテ情報共有サービスで未告知情報または未説明フラグを設定する場合に使用（本リソース種別で使用することが許可されているか、あるいは設定した情報が利用されるかどうかについては、電子カルテ情報共有サービスの運用仕様によって確認することが必要）</t>
+  </si>
+  <si>
+    <t>patient要素から参照される場合には、そのJP_Patientリソースの実体。JP_Patientリソースの必須要素だけが含まれればよい。
+電子カルテ情報共有サービスでは、JP_Patientリソースのcontainは必須。</t>
+  </si>
+  <si>
+    <t>encounter要素から参照される場合には、そのJP_Encounterリソースの実体。JP_Encounterリソースの必須要素だけが含まれればよい。ここで埋め込まれるJP_Encounterリソースでは、Encounter.classにこの情報を記録したときの受診情報（入外区分など）を記述して使用する。</t>
+  </si>
+  <si>
+    <t>recorder要素から参照される場合には、そのJP_Practitionerリソースの実体。JP_Practitionerリソースの必須要素だけが含まれればよい。</t>
+  </si>
+  <si>
+    <t>このアレルギー情報を作成した施設内で、このアレルギー情報を他のアレルギー情報と一意に区別できるID。このID情報をキーとして本アレルギー情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。</t>
+  </si>
+  <si>
+    <t>アレルギー情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
+  </si>
+  <si>
+    <t>臨床的状態のステータス。コードで記述は必須。ただし、verificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。それ以外では必須。</t>
+  </si>
+  <si>
+    <t>コードで記述が必須で、少なくともひとつのsystem値は固定値。</t>
+  </si>
+  <si>
+    <t>active|inactive|resolved(アクティブ|非アクティブ|解決済み)のいずれか（ValueSethttp://hl7.org/fhir/ValueSet/allergyintolerance-clinicalより選択することが必須）。「解決済み」は「非アクティブ」に含まれる。</t>
+  </si>
+  <si>
+    <t>Active|Inactive|Resolvedのいずれかの文字列。</t>
+  </si>
+  <si>
+    <t>コードだけでは記述できない情報がある場合にコードと併用してもよい。値が使用されない可能性はある。</t>
+  </si>
+  <si>
+    <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。コード化記述が必須。clinicalStatusとの制約条件を参照のこと。</t>
+  </si>
+  <si>
+    <t>unconfirmed|confirmed|refuted|entered-in-error(未確認|確認済み|否定された|入力エラー)のいずれか（ValueSethttp://hl7.org/fhir/ValueSet/allergyintolerance-verificationより選択することが必須）。</t>
+  </si>
+  <si>
+    <t>Unconfirmed|Confirmed|Refuted|EnteredinErrorのいずれかの文字列。</t>
+  </si>
+  <si>
+    <t>副反応の生理的なメカニズムの種類（アレルギーによるものか不耐性によるものかどうか）。記述する場合は、コード表："http://hl7.org/fhir/allergy-intolerance-type"から、allergy|intolerance（アレルギー反応、不耐性反応）のいずれか。メカニズムの種類を正確に決めることは難しいので、この情報はあくまで情報登録側の判断に依存する。</t>
+  </si>
+  <si>
+    <t>特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
+電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
+  </si>
+  <si>
+    <t>潜在的な臨床的危険性、致命度。記述する場合は、コード表："http://hl7.org/fhir/allergy-intolerance-criticality"からlow|high|unable-to-assessのいずれかを選択する。（低、高、評価不能）。
+電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、category要素の記述を参照すること。</t>
+  </si>
+  <si>
+    <t>JP-Coreで定めるallergy-substanceコード表のコードを使用を推奨する。コード化できない場合には、code.textのみで記述する。コード化の有無にかかわらず、電子カルテシステム等で登録され表示されている文字列をcode.textに必ず設定すること。</t>
+  </si>
+  <si>
+    <t>使用するコード表（推奨）：ValueSethttp://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
+CodeSystemは、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CSの3つのいずれかから選択することが推奨されている。</t>
+  </si>
+  <si>
+    <t>コードに対応する表示名</t>
+  </si>
+  <si>
+    <t>このアレルギー不耐症を有する患者のFHIRリソースへの参照。Bundleリソースなどで本リソースから参照可能なPatientリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）、保険個人識別子が記述される外部リソースが蓄積されていてそれを参照する場合の記述（次次行の例）を示す。</t>
+  </si>
+  <si>
+    <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合は、JP_Patientタイプのリソース（Patient.idの値が"#patient203987"と仮定）が本リソースのContainedリソースとして埋め込み記述が必須であるため、そのcontainedリソースのid値(Patient.id)を記述する例２となる。</t>
+  </si>
+  <si>
+    <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合に、保険個人識別子(例では、保険者等番号＝12345、被保険者証等の記号＝あいう、被保険者証等の番号＝１８７、枝番＝05の患者)を記述した外部にある患者リソースを参照する場合の例。</t>
+  </si>
+  <si>
+    <t>このアレルギ情報を記録したときの受診情報（入外区分など）を記述しているEncounterリソースへの参照。Bundleリソースなどで本リソースから参照可能なEncouertリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）。</t>
+  </si>
+  <si>
+    <t>電子カルテシステムで入院時、外来受診時のいずれにおいて本情報が登録されたか記録さている場合にはその入院・外来区分をEncounter.class要素に設定し、そのEncounterリソースをContainedリソースとして本リソースに埋め込んで、それを参照すること。
+電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合に、JP_Encounterタイプのリソース（Encounter.idの値が"#encounter203987"と仮定）が本リソースのContainedリソースとして埋め込み記述されている場合に、そのcontainedリソースのid値(Encounter.id)を記述する例。</t>
+  </si>
+  <si>
+    <t>このアレルギー・不耐性状態が同定された時期。患者に反応が出現した時期、あるいはなんらかのエビデンスによりこの反応が患者にあると確認できた時期を記述する。記録を登録した日時は、別途recordedDateに記述する。記述方法として、1時点の日時、患者の年齢（曖昧な年齢時期の記述も可能）、開始時期と終了時期による期間、年齢の区間、（なんらかの出来事を引用して記述するような）文字列で時期を記述、の5通りのいずれかの要素（onsetDateTime、onseAge、onsetPeriod、onsetRange、onsetString）からひとつの記述方法を選択して、それにより記述する。複数を選択はできない。onset要素は記述しないで、直接onsetDateTime要素などonsetXXXXの要素により記述する。</t>
+  </si>
+  <si>
+    <t>一時点の記述方式：
+日付または日時。年や年月だけでもよい。例：2018,1973-06,1905-08-23,2015-02-07T13:28:17+09:00。
+時刻に24:00の使用はできない。</t>
+  </si>
+  <si>
+    <t>年齢や年齢を基準にして記述する方式：
+患者の申告による、状態が出現し始めた年齢。</t>
+  </si>
+  <si>
+    <t>valueの値と等しい年齢を表現したい場合には、=は不要でこの要素は出現しない。
+そうでない指定をしたい場合には、&lt;、&lt;=、&gt;=、&gt;のいずれか。
+要素valueの値の解釈方法。例では、「50歳以上で」と記述したい場合には、&gt;=を記述する。</t>
+  </si>
+  <si>
+    <t>単位表現。文字列で単位文字列を記述する。</t>
+  </si>
+  <si>
+    <t>単位体系UCUMコード体系。固定値。</t>
+  </si>
+  <si>
+    <t>単位体系における単位コード。min：minutes、h：hours、d：days、wk：weeks、mo：months、a：years</t>
+  </si>
+  <si>
+    <t>下限値表現</t>
+  </si>
+  <si>
+    <t>年齢の値。月齢や週齢なども可能</t>
+  </si>
+  <si>
+    <t>単位体系UCUMコード体系。</t>
+  </si>
+  <si>
+    <t>この状態を記録した人情報への参照。医療者のContainedリソースへの参照を記述する。またはdisplay要素に文字列を記述する。</t>
+  </si>
+  <si>
+    <t>この状態があると確認（主張）した人情報への参照。医療者、患者本人の場合にはそれぞれのContainedリソースへの参照を記述する。またはdisplay要素に文字列を記述する。</t>
+  </si>
+  <si>
+    <t>対象物質に暴露したことに関連して派生した有害反応の履歴事実に関する情報。複数記述できる。</t>
+  </si>
+  <si>
+    <t>有害反応の原因と考えられる物質（または医薬品）。
+注：特定の有害反応を誘発する物質は、原因として特定された物質と異なっていてもよいが、整合がとれていなければならない。たとえば、より具体的な物質（ブランド薬など）や、特定された物質を含む複合製品の場合がある。AllergyIntolerance.codeのみを処理し、AllergyIntolerance.reaction.substanceを無視しても、臨床的に安全でなければならない。受信システムがAllergyIntolerance.reaction.substanceがAllergyIntolerance.codeのセマンティックスコープ内に（前者が後者の意味的な下位概念にあること）を確認できない場合、受信システムはAllergyIntolerance.reaction.substanceを無視する必要がある。</t>
+  </si>
+  <si>
+    <t>有害反応の原因物質のコード化情報</t>
+  </si>
+  <si>
+    <t>jpfhir.jpでのアレルゲンコード表のコードを使用できる。
+使用するコード表（例）：ValueSethttp://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
+CodeSystemは、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CSの3つのいずれかから選択することができる。</t>
+  </si>
+  <si>
+    <t>有害反応の原因物質の文字列による記述</t>
+  </si>
+  <si>
+    <t>"持続腹痛"はその表示名の例</t>
+  </si>
+  <si>
+    <t>アレルギー反応に関連する症状や所見症状のテキスト表現</t>
+  </si>
+  <si>
+    <t>反応の激しさ程度。mild|moderate|severe(ofeventasawhole)（軽度|中度|重度）ValueSethttp://hl7.org/fhir/ValueSet/reaction-event-severityから選択する。(コード表：http://hl7.org/fhir/reaction-event-severity)</t>
+  </si>
+  <si>
+    <t>JAMI標準用法の投与経路コード表（JAMI用法コード表基本用法2桁コードに相当）を使用する。</t>
+  </si>
+  <si>
+    <t>摂取経路コード</t>
+  </si>
+  <si>
+    <t>摂取経路コードに対応する表示名</t>
+  </si>
+  <si>
+    <t>接種経路の文字列表現</t>
+  </si>
+  <si>
+    <t>profile[+]</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>AllergyIntoleranceリソースであることを示す。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">patient要素から参照される場合には、そのJP_Patientリソースの実体。JP_Patientリソースの必須要素だけが含まれればよい。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスでは、JP_Patientリソースのcontainは必須。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">潜在的な臨床的危険性、致命度。記述する場合は、コード表："http://hl7.org/fhir/allergy-intolerance-criticality"からlow|high|unable-to-assessのいずれかを選択する。（低、高、評価不能）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、category要素の記述を参照すること。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合は、JP_Patientタイプのリソース（Patient.idの値が"#patient203987"と仮定）が本リソースのContainedリソースとして埋め込み記述が必須であるため、そのcontainedリソースのid値(Patient.id)を記述する例２となる。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合に、保険個人識別子(例では、保険者等番号＝12345、被保険者証等の記号＝あいう、被保険者証等の番号＝１８７、枝番＝05の患者)を記述した外部にある患者リソースを参照する場合の例。</t>
+    <phoneticPr fontId="24"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2396,6 +2655,13 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3392,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
       <selection sqref="A1:I100"/>
     </sheetView>
   </sheetViews>
@@ -5771,4 +6037,4813 @@
   </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="75">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="90">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="90">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="63">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75">
+      <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="105">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="195">
+      <c r="A31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
+      <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="75">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="165">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="195">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90">
+      <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="165">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="195">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="60">
+      <c r="A45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="90">
+      <c r="A48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30">
+      <c r="A59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
+      <c r="A61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30">
+      <c r="A66" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
+      <c r="A67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="90">
+      <c r="A68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="180">
+      <c r="A69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" ht="30">
+      <c r="A71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" ht="30">
+      <c r="A74" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="30">
+      <c r="A75" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="225">
+      <c r="A76" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" ht="30">
+      <c r="A77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" ht="195">
+      <c r="A78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30">
+      <c r="A79" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30">
+      <c r="A80" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30">
+      <c r="A81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30">
+      <c r="A82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="45">
+      <c r="A84" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30">
+      <c r="A85" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30">
+      <c r="A86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30">
+      <c r="A87" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="45">
+      <c r="A88" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30">
+      <c r="A89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="75">
+      <c r="A90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30">
+      <c r="A91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" ht="30">
+      <c r="A92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30">
+      <c r="A94" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30">
+      <c r="A96" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="30">
+      <c r="A97" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" ht="30">
+      <c r="A98" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="30">
+      <c r="A99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" ht="31" thickBot="1">
+      <c r="A100" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" s="17"/>
+      <c r="I100" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24"/>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{31259AA5-2232-FE45-B527-54F5618754A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9E4007-BE62-8F48-969D-0EC554B77C0B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="24"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="75">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="90">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="90">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="63">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75">
+      <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="105">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="195">
+      <c r="A31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
+      <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="75">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="165">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="195">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90">
+      <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="165">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="195">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="60">
+      <c r="A45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="90">
+      <c r="A48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30">
+      <c r="A59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
+      <c r="A61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="90">
+      <c r="A68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="180">
+      <c r="A69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" ht="30">
+      <c r="A71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" ht="30">
+      <c r="A74" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="30">
+      <c r="A75" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="225">
+      <c r="A76" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" ht="195">
+      <c r="A78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30">
+      <c r="A82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="45">
+      <c r="A84" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30">
+      <c r="A85" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30">
+      <c r="A86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30">
+      <c r="A87" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="45">
+      <c r="A88" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="75">
+      <c r="A90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30">
+      <c r="A91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" ht="30">
+      <c r="A92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30">
+      <c r="A94" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30">
+      <c r="A96" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="30">
+      <c r="A97" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" ht="30">
+      <c r="A98" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" ht="31" thickBot="1">
+      <c r="A100" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" s="17"/>
+      <c r="I100" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24"/>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{AB1C1CC0-9590-7041-A13D-22995CEE2EEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
+</worksheet>
 </file>